--- a/Base_Crud.xlsx
+++ b/Base_Crud.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENA\Desktop\prueba\prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A223EDE-F289-42DD-B965-A68FD1747171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15FF41F-3018-4298-9B26-7D340B9CD8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>descripción</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>fecha inicio</t>
+  </si>
+  <si>
+    <t>fecha fin</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -338,14 +361,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
